--- a/Daten/Bauprojekte/Bauprojekte_im_Bau_processing_01.xlsx
+++ b/Daten/Bauprojekte/Bauprojekte_im_Bau_processing_01.xlsx
@@ -55,7 +55,7 @@
     <t>Rauminhalt – Wohnen Neubau</t>
   </si>
   <si>
-    <t>Rauminhalt – Nichohnen Neubau</t>
+    <t>Rauminhalt – Nichtwohnen Neubau</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,6 +933,53 @@
         <v>2252621</v>
       </c>
     </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>7674862</v>
+      </c>
+      <c r="I12">
+        <v>2332400</v>
+      </c>
+      <c r="J12">
+        <v>441498</v>
+      </c>
+      <c r="K12">
+        <v>3168847</v>
+      </c>
+      <c r="L12">
+        <v>1732117</v>
+      </c>
+      <c r="M12">
+        <v>6108147</v>
+      </c>
+      <c r="N12">
+        <v>2951488</v>
+      </c>
+      <c r="O12">
+        <v>3156659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
